--- a/LiyaCrafterAutomation/tests/testdata/FinancePrompts.xlsx
+++ b/LiyaCrafterAutomation/tests/testdata/FinancePrompts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Initiatives\PythonProjects\LiyaCrafterAutomation\tests\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C124B0-66D1-4005-82F2-3F8C9597D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DE035-6764-4D84-939E-093D8CB0A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{6F1A2417-75CB-4429-9C58-88AC0BB47F54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F1A2417-75CB-4429-9C58-88AC0BB47F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>What are the sales record for past year quarter wise</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +445,7 @@
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -468,6 +472,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
